--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3094,7 +3094,7 @@
         <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>73</v>
@@ -5760,7 +5760,7 @@
         <v>74</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>73</v>
@@ -7256,7 +7256,7 @@
         <v>74</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>73</v>
@@ -8004,7 +8004,7 @@
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/ClinicalUseDefinition-indication-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/ClinicalUseDefinition-indication-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -510,7 +510,7 @@
     <t>ClinicalUseDefinition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -758,7 +758,7 @@
     <t>The situation that is being documented as an indicaton for this item.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/meddra</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/meddra</t>
   </si>
   <si>
     <t>Therapeutic Indication.Indication as "Disease / Symptom / Procedure", and Therapeutic Indication.Indication Text</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="369">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -442,7 +442,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -485,7 +485,7 @@
     <t>Overall defining type of this clinical use definition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-use-definition-type|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-use-definition-type|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>(the type of IDMP class, out of Contraindication, Therapeutic Indication, Interactions, Undesirable Effects)</t>
@@ -670,6 +670,22 @@
     <t>(the link from Contraindication to Therapeutic Indication)</t>
   </si>
   <si>
+    <t>ClinicalUseDefinition.contraindication.applicability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression
+</t>
+  </si>
+  <si>
+    <t>An expression that returns true or false, indicating whether the indication is applicable or not, after having applied its other elements</t>
+  </si>
+  <si>
+    <t>An expression that returns true or false, indicating whether the indication is applicable or not, after having applied its other elements.</t>
+  </si>
+  <si>
+    <t>The expression may be inlined or may be a reference to a named expression within a logic library referenced by the library element.</t>
+  </si>
+  <si>
     <t>ClinicalUseDefinition.contraindication.otherTherapy</t>
   </si>
   <si>
@@ -837,6 +853,9 @@
     <t>Therapeutic Indication.Undesirable Effects</t>
   </si>
   <si>
+    <t>ClinicalUseDefinition.indication.applicability</t>
+  </si>
+  <si>
     <t>ClinicalUseDefinition.indication.otherTherapy</t>
   </si>
   <si>
@@ -996,6 +1015,19 @@
   </si>
   <si>
     <t>Population Specifics</t>
+  </si>
+  <si>
+    <t>ClinicalUseDefinition.library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(Library)
+</t>
+  </si>
+  <si>
+    <t>Logic used by the clinical use definition</t>
+  </si>
+  <si>
+    <t>Logic used by the clinical use definition.</t>
   </si>
   <si>
     <t>ClinicalUseDefinition.undesirableEffect</t>
@@ -1419,7 +1451,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AM70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1453,7 +1485,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="81.53515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.99609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -4023,7 +4055,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4032,18 +4064,20 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4098,7 +4132,7 @@
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
@@ -4107,7 +4141,7 @@
         <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4118,10 +4152,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4132,7 +4166,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4141,16 +4175,16 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4201,47 +4235,47 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4253,17 +4287,15 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4312,19 +4344,19 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4338,14 +4370,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4358,26 +4390,24 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="O27" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4425,7 +4455,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4446,47 +4476,51 @@
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4510,13 +4544,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -4534,36 +4568,36 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4586,13 +4620,13 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4619,13 +4653,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4643,7 +4677,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>83</v>
@@ -4658,7 +4692,7 @@
         <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4669,10 +4703,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4695,13 +4729,13 @@
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4728,13 +4762,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -4752,10 +4786,10 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>83</v>
@@ -4767,7 +4801,7 @@
         <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4778,10 +4812,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4789,7 +4823,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>83</v>
@@ -4801,16 +4835,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4861,7 +4895,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4873,35 +4907,35 @@
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4913,17 +4947,15 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -4972,19 +5004,19 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -4998,14 +5030,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5018,26 +5050,24 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="O33" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5085,7 +5115,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5106,47 +5136,51 @@
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5170,11 +5204,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5192,28 +5228,28 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
@@ -5277,13 +5313,11 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5316,7 +5350,7 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5327,10 +5361,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5341,7 +5375,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5356,10 +5390,10 @@
         <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5389,10 +5423,10 @@
         <v>192</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5410,13 +5444,13 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
@@ -5425,7 +5459,7 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -5436,10 +5470,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5450,7 +5484,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5465,10 +5499,10 @@
         <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5495,13 +5529,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5519,13 +5553,13 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
@@ -5534,7 +5568,7 @@
         <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5545,10 +5579,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5571,13 +5605,13 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5604,13 +5638,13 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -5628,7 +5662,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5668,7 +5702,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5680,13 +5714,13 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5743,7 +5777,7 @@
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
@@ -5752,7 +5786,7 @@
         <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5763,10 +5797,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5789,13 +5823,13 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5846,7 +5880,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5861,7 +5895,7 @@
         <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5872,10 +5906,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5886,7 +5920,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -5895,18 +5929,20 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -5955,7 +5991,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -5970,7 +6006,7 @@
         <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -5981,10 +6017,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5995,7 +6031,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6004,16 +6040,16 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6064,47 +6100,47 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6113,20 +6149,18 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6175,72 +6209,68 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6288,19 +6318,19 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -6309,19 +6339,19 @@
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6337,18 +6367,20 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6397,7 +6429,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>277</v>
+        <v>182</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6409,56 +6441,60 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6506,19 +6542,19 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6527,19 +6563,19 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6555,20 +6591,18 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>130</v>
+        <v>284</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -6617,7 +6651,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>182</v>
+        <v>283</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6629,60 +6663,56 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6730,19 +6760,19 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -6751,26 +6781,26 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -6779,18 +6809,20 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>285</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>286</v>
+        <v>130</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -6815,13 +6847,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -6839,68 +6871,72 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
@@ -6924,13 +6960,13 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -6948,36 +6984,36 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6985,7 +7021,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>83</v>
@@ -7000,13 +7036,13 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>189</v>
+        <v>291</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7036,10 +7072,10 @@
         <v>192</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7057,10 +7093,10 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>83</v>
@@ -7072,7 +7108,7 @@
         <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7083,10 +7119,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7112,10 +7148,10 @@
         <v>155</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7145,10 +7181,10 @@
         <v>192</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7166,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7181,7 +7217,7 @@
         <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7192,10 +7228,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7206,7 +7242,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7218,13 +7254,13 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7254,10 +7290,10 @@
         <v>192</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7275,13 +7311,13 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>74</v>
@@ -7290,7 +7326,7 @@
         <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7301,10 +7337,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7315,7 +7351,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7327,13 +7363,13 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>315</v>
+        <v>155</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7360,13 +7396,13 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>74</v>
+        <v>311</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -7384,13 +7420,13 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
@@ -7399,7 +7435,7 @@
         <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7410,10 +7446,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7424,7 +7460,7 @@
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7436,13 +7472,13 @@
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7469,13 +7505,13 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -7493,13 +7529,13 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
@@ -7508,7 +7544,7 @@
         <v>95</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7519,10 +7555,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7533,7 +7569,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -7542,16 +7578,16 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>176</v>
+        <v>321</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>177</v>
+        <v>322</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>178</v>
+        <v>323</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7602,40 +7638,40 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>179</v>
+        <v>320</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>74</v>
+        <v>324</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7651,20 +7687,18 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>129</v>
+        <v>326</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -7713,7 +7747,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>182</v>
+        <v>325</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7725,60 +7759,56 @@
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>185</v>
+        <v>330</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
@@ -7826,36 +7856,36 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>187</v>
+        <v>329</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>74</v>
+        <v>332</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7875,16 +7905,16 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7911,13 +7941,13 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>330</v>
+        <v>74</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -7935,7 +7965,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>326</v>
+        <v>179</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -7947,35 +7977,35 @@
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -7984,18 +8014,20 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>333</v>
+        <v>130</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8020,13 +8052,13 @@
         <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>335</v>
+        <v>74</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -8044,68 +8076,72 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>332</v>
+        <v>182</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>337</v>
+        <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>339</v>
+        <v>185</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
       </c>
@@ -8129,13 +8165,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>341</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>342</v>
+        <v>74</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8153,36 +8189,36 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>338</v>
+        <v>187</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>343</v>
+        <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8193,7 +8229,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8205,13 +8241,13 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8238,13 +8274,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8262,7 +8298,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8277,7 +8313,7 @@
         <v>95</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>144</v>
+        <v>341</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8288,10 +8324,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8311,16 +8347,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>177</v>
+        <v>343</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8347,13 +8383,13 @@
         <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>74</v>
+        <v>345</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -8371,7 +8407,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>179</v>
+        <v>342</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8383,16 +8419,16 @@
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
@@ -8404,14 +8440,14 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8420,20 +8456,18 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>130</v>
+        <v>349</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
@@ -8458,13 +8492,13 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -8482,72 +8516,68 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>182</v>
+        <v>348</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>185</v>
+        <v>355</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
       </c>
@@ -8595,36 +8625,36 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>187</v>
+        <v>354</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8644,16 +8674,16 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>351</v>
+        <v>176</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>352</v>
+        <v>177</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>353</v>
+        <v>178</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8704,7 +8734,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>350</v>
+        <v>179</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -8716,35 +8746,35 @@
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>74</v>
@@ -8753,18 +8783,20 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>355</v>
+        <v>130</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -8789,51 +8821,382 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X70" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH67" t="s" s="2">
+      <c r="Y70" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH70" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AI67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
+      <c r="AI70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AK70" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AL70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="370">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A single issue - either an indication, contraindication, interaction or an undesirable effect for a medicinal product, medication, device or procedure</t>
@@ -1647,13 +1651,13 @@
         <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1719,21 +1723,21 @@
         <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1744,7 +1748,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1753,19 +1757,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1815,13 +1819,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1841,10 +1845,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1855,7 +1859,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1864,16 +1868,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1924,19 +1928,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -1950,10 +1954,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1964,28 +1968,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2035,19 +2039,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -2061,10 +2065,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2075,7 +2079,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2087,16 +2091,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2122,13 +2126,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2146,19 +2150,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2172,21 +2176,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -2198,16 +2202,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2257,19 +2261,19 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
@@ -2278,19 +2282,19 @@
         <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2309,16 +2313,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2368,7 +2372,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2389,19 +2393,19 @@
         <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2420,16 +2424,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2479,7 +2483,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2491,7 +2495,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -2500,19 +2504,19 @@
         <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2525,25 +2529,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2592,7 +2596,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2604,7 +2608,7 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -2613,15 +2617,15 @@
         <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2641,16 +2645,16 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2701,7 +2705,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2713,13 +2717,13 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2727,10 +2731,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2738,10 +2742,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2750,16 +2754,16 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2771,7 +2775,7 @@
         <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>74</v>
@@ -2786,13 +2790,13 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
@@ -2810,22 +2814,22 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2836,10 +2840,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2859,16 +2863,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2895,13 +2899,13 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -2919,7 +2923,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2931,10 +2935,10 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -2945,10 +2949,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2956,7 +2960,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>76</v>
@@ -2968,16 +2972,16 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3028,7 +3032,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3040,10 +3044,10 @@
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3054,10 +3058,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3068,7 +3072,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -3077,16 +3081,16 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3113,13 +3117,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3137,22 +3141,22 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3163,10 +3167,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3186,16 +3190,16 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3246,22 +3250,22 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -3272,10 +3276,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3286,7 +3290,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3298,13 +3302,13 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3355,13 +3359,13 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
@@ -3376,19 +3380,19 @@
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3407,16 +3411,16 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3466,7 +3470,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3478,7 +3482,7 @@
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
@@ -3487,19 +3491,19 @@
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3512,25 +3516,25 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -3579,7 +3583,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3591,7 +3595,7 @@
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3600,15 +3604,15 @@
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3619,7 +3623,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3628,16 +3632,16 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3664,13 +3668,13 @@
         <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>74</v>
@@ -3688,22 +3692,22 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3714,10 +3718,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3728,7 +3732,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3737,16 +3741,16 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3773,13 +3777,13 @@
         <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>74</v>
@@ -3797,22 +3801,22 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3823,10 +3827,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3846,16 +3850,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3882,13 +3886,13 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -3906,7 +3910,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3918,10 +3922,10 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3932,10 +3936,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3955,16 +3959,16 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4015,7 +4019,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4027,10 +4031,10 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4041,10 +4045,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4055,7 +4059,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4067,16 +4071,16 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4126,22 +4130,22 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4152,10 +4156,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4175,16 +4179,16 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4235,7 +4239,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4247,10 +4251,10 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4261,10 +4265,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4275,7 +4279,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4287,13 +4291,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4344,13 +4348,13 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
@@ -4365,19 +4369,19 @@
         <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4396,16 +4400,16 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4455,7 +4459,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4467,7 +4471,7 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4476,19 +4480,19 @@
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4501,25 +4505,25 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4568,7 +4572,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4580,7 +4584,7 @@
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4589,15 +4593,15 @@
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4605,10 +4609,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4617,16 +4621,16 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4653,13 +4657,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4677,22 +4681,22 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4703,10 +4707,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4714,10 +4718,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4726,16 +4730,16 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4762,13 +4766,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -4786,22 +4790,22 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4812,10 +4816,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4823,10 +4827,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -4835,16 +4839,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4895,22 +4899,22 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -4921,10 +4925,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4935,7 +4939,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4947,13 +4951,13 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5004,13 +5008,13 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
@@ -5025,19 +5029,19 @@
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5056,16 +5060,16 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5115,7 +5119,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5127,7 +5131,7 @@
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5136,19 +5140,19 @@
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5161,25 +5165,25 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5228,7 +5232,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5240,7 +5244,7 @@
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -5249,15 +5253,15 @@
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5268,7 +5272,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5277,16 +5281,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5313,11 +5317,11 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5335,22 +5339,22 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5361,10 +5365,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5375,7 +5379,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5384,16 +5388,16 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5420,13 +5424,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5444,22 +5448,22 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -5470,10 +5474,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5493,16 +5497,16 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5529,13 +5533,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5553,7 +5557,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5565,10 +5569,10 @@
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5579,10 +5583,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5593,7 +5597,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5602,16 +5606,16 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5638,13 +5642,13 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -5662,22 +5666,22 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -5688,10 +5692,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5702,7 +5706,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5711,16 +5715,16 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5771,22 +5775,22 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5797,10 +5801,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5820,16 +5824,16 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5880,7 +5884,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5892,10 +5896,10 @@
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5906,10 +5910,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5920,7 +5924,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -5932,16 +5936,16 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5991,22 +5995,22 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6017,10 +6021,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6040,16 +6044,16 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6100,7 +6104,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6112,10 +6116,10 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6126,10 +6130,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6149,16 +6153,16 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6209,22 +6213,22 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6235,10 +6239,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6249,7 +6253,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6261,13 +6265,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6318,13 +6322,13 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
@@ -6339,19 +6343,19 @@
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6370,16 +6374,16 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6429,7 +6433,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6441,7 +6445,7 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
@@ -6450,19 +6454,19 @@
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6475,25 +6479,25 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6542,7 +6546,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6554,7 +6558,7 @@
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6563,15 +6567,15 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6591,16 +6595,16 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6651,7 +6655,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6663,10 +6667,10 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -6677,10 +6681,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6691,7 +6695,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -6703,13 +6707,13 @@
         <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6760,13 +6764,13 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>74</v>
@@ -6781,19 +6785,19 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6812,16 +6816,16 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6871,7 +6875,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -6883,7 +6887,7 @@
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
@@ -6892,19 +6896,19 @@
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6917,25 +6921,25 @@
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -6984,7 +6988,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -6996,7 +7000,7 @@
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
@@ -7005,15 +7009,15 @@
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7021,10 +7025,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7033,16 +7037,16 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7069,13 +7073,13 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7093,22 +7097,22 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7119,10 +7123,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7133,7 +7137,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7142,16 +7146,16 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7178,13 +7182,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7202,22 +7206,22 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7228,10 +7232,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7242,7 +7246,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7251,16 +7255,16 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7287,13 +7291,13 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7311,22 +7315,22 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7337,10 +7341,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7351,7 +7355,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7360,16 +7364,16 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7396,13 +7400,13 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -7420,22 +7424,22 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7446,10 +7450,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7469,16 +7473,16 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7505,13 +7509,13 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -7529,7 +7533,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7541,10 +7545,10 @@
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7555,10 +7559,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7578,16 +7582,16 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7638,7 +7642,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7650,10 +7654,10 @@
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -7664,10 +7668,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7687,16 +7691,16 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7747,7 +7751,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7759,10 +7763,10 @@
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -7773,10 +7777,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7796,16 +7800,16 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7856,22 +7860,22 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -7882,10 +7886,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7896,7 +7900,7 @@
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -7908,13 +7912,13 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7965,13 +7969,13 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
@@ -7986,19 +7990,19 @@
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8017,16 +8021,16 @@
         <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8076,7 +8080,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8088,7 +8092,7 @@
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
@@ -8097,19 +8101,19 @@
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8122,25 +8126,25 @@
         <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8189,7 +8193,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8201,7 +8205,7 @@
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
@@ -8210,15 +8214,15 @@
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8229,7 +8233,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8238,16 +8242,16 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8274,13 +8278,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8298,22 +8302,22 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8324,10 +8328,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8338,7 +8342,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8347,16 +8351,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8383,13 +8387,13 @@
         <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -8407,22 +8411,22 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8433,10 +8437,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8447,7 +8451,7 @@
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8456,16 +8460,16 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8492,13 +8496,13 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -8516,22 +8520,22 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8542,10 +8546,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8565,16 +8569,16 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8625,22 +8629,22 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -8651,10 +8655,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8665,7 +8669,7 @@
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
@@ -8677,13 +8681,13 @@
         <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8734,13 +8738,13 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>74</v>
@@ -8755,19 +8759,19 @@
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -8786,16 +8790,16 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8845,7 +8849,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -8857,7 +8861,7 @@
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
@@ -8866,19 +8870,19 @@
         <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -8891,25 +8895,25 @@
         <v>74</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -8958,7 +8962,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -8970,7 +8974,7 @@
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
@@ -8979,15 +8983,15 @@
         <v>74</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8998,7 +9002,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -9007,16 +9011,16 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9067,22 +9071,22 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
@@ -9093,10 +9097,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9107,7 +9111,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -9116,16 +9120,16 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9152,13 +9156,13 @@
         <v>74</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>74</v>
@@ -9176,22 +9180,22 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
